--- a/equilibrium.xlsx
+++ b/equilibrium.xlsx
@@ -405,10 +405,10 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>8.445137385926536</v>
+        <v>8.306412923626578</v>
       </c>
       <c r="D2">
-        <v>2.815045795308845</v>
+        <v>2.768804307875526</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -419,10 +419,10 @@
         <v>3.040816326530612</v>
       </c>
       <c r="C3">
-        <v>8.274182683795862</v>
+        <v>8.143944171844646</v>
       </c>
       <c r="D3">
-        <v>2.72103994299327</v>
+        <v>2.67820982832475</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -433,10 +433,10 @@
         <v>3.081632653061224</v>
       </c>
       <c r="C4">
-        <v>8.10622861753478</v>
+        <v>7.984307446591386</v>
       </c>
       <c r="D4">
-        <v>2.630498028206651</v>
+        <v>2.590934204523033</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -447,10 +447,10 @@
         <v>3.122448979591837</v>
       </c>
       <c r="C5">
-        <v>7.941193815955644</v>
+        <v>7.827425236737846</v>
       </c>
       <c r="D5">
-        <v>2.543258150208016</v>
+        <v>2.506822461438918</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -461,10 +461,10 @@
         <v>3.163265306122449</v>
       </c>
       <c r="C6">
-        <v>7.77900053370956</v>
+        <v>7.6732234826847</v>
       </c>
       <c r="D6">
-        <v>2.459167910656571</v>
+        <v>2.42572871388097</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -475,10 +475,10 @@
         <v>3.204081632653061</v>
       </c>
       <c r="C7">
-        <v>7.619574476002003</v>
+        <v>7.521631410869367</v>
       </c>
       <c r="D7">
-        <v>2.378083753656676</v>
+        <v>2.347515535876427</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -489,10 +489,10 @@
         <v>3.244897959183674</v>
       </c>
       <c r="C8">
-        <v>7.462844650229332</v>
+        <v>7.372581394358958</v>
       </c>
       <c r="D8">
-        <v>2.299870363907153</v>
+        <v>2.272053385682949</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -503,10 +503,10 @@
         <v>3.285714285714286</v>
       </c>
       <c r="C9">
-        <v>7.308743251251905</v>
+        <v>7.226008845902345</v>
       </c>
       <c r="D9">
-        <v>2.224400119946232</v>
+        <v>2.199220083535496</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -517,10 +517,10 @@
         <v>3.326530612244897</v>
       </c>
       <c r="C10">
-        <v>7.157205591666268</v>
+        <v>7.0818521540604</v>
       </c>
       <c r="D10">
-        <v>2.15155260117575</v>
+        <v>2.128900340791164</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -531,10 +531,10 @@
         <v>3.36734693877551</v>
       </c>
       <c r="C11">
-        <v>7.00817009573666</v>
+        <v>6.940052679600399</v>
       </c>
       <c r="D11">
-        <v>2.081214149643008</v>
+        <v>2.060985341214664</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -545,10 +545,10 @@
         <v>3.408163265306122</v>
       </c>
       <c r="C12">
-        <v>6.861578387158645</v>
+        <v>6.80055483953812</v>
       </c>
       <c r="D12">
-        <v>2.013277490842956</v>
+        <v>1.995372378068071</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -559,10 +559,10 @@
         <v>3.448979591836734</v>
       </c>
       <c r="C13">
-        <v>6.717375519031725</v>
+        <v>6.663306322079896</v>
       </c>
       <c r="D13">
-        <v>1.947641422677838</v>
+        <v>1.931964554922573</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -573,10 +573,10 @@
         <v>3.489795918367347</v>
       </c>
       <c r="C14">
-        <v>6.575510423230592</v>
+        <v>6.528258500424876</v>
       </c>
       <c r="D14">
-        <v>1.88421058911286</v>
+        <v>1.870670564449233</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -587,10 +587,10 @@
         <v>3.530612244897959</v>
       </c>
       <c r="C15">
-        <v>6.435936701952039</v>
+        <v>6.395367151828792</v>
       </c>
       <c r="D15">
-        <v>1.822895366448843</v>
+        <v>1.811404569015091</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -601,10 +601,10 @@
         <v>3.571428571428571</v>
       </c>
       <c r="C16">
-        <v>6.298613956193718</v>
+        <v>6.264593647989086</v>
       </c>
       <c r="D16">
-        <v>1.763611907734241</v>
+        <v>1.754086221436944</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -615,10 +615,10 @@
         <v>3.612244897959184</v>
       </c>
       <c r="C17">
-        <v>6.163509959057534</v>
+        <v>6.135906874935531</v>
       </c>
       <c r="D17">
-        <v>1.706282418044176</v>
+        <v>1.698640886281588</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -629,10 +629,10 @@
         <v>3.653061224489796</v>
       </c>
       <c r="C18">
-        <v>6.030604158078886</v>
+        <v>6.009286281592359</v>
       </c>
       <c r="D18">
-        <v>1.650835775116567</v>
+        <v>1.645000155296232</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -643,10 +643,10 @@
         <v>3.693877551020408</v>
       </c>
       <c r="C19">
-        <v>5.89989326132416</v>
+        <v>5.884726668557478</v>
       </c>
       <c r="D19">
-        <v>1.597208672955159</v>
+        <v>1.593102799775229</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -657,10 +657,10 @@
         <v>3.734693877551021</v>
       </c>
       <c r="C20">
-        <v>5.771400065764068</v>
+        <v>5.762245639853067</v>
       </c>
       <c r="D20">
-        <v>1.545347558592564</v>
+        <v>1.54289637351257</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -671,10 +671,10 @@
         <v>3.775510204081633</v>
       </c>
       <c r="C21">
-        <v>5.645187258739529</v>
+        <v>5.641895074048588</v>
       </c>
       <c r="D21">
-        <v>1.495211760422902</v>
+        <v>1.494339776369626</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -685,10 +685,10 @@
         <v>3.816326530612245</v>
       </c>
       <c r="C22">
-        <v>5.521378654204399</v>
+        <v>5.523778518061655</v>
       </c>
       <c r="D22">
-        <v>1.446778363935912</v>
+        <v>1.447407205267492</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -699,10 +699,10 @@
         <v>3.857142857142858</v>
       </c>
       <c r="C23">
-        <v>5.400191043395732</v>
+        <v>5.408076947829414</v>
       </c>
       <c r="D23">
-        <v>1.400049529769264</v>
+        <v>1.40209402351133</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -713,10 +713,10 @@
         <v>3.897959183673469</v>
       </c>
       <c r="C24">
-        <v>5.281979937822883</v>
+        <v>5.295085468694369</v>
       </c>
       <c r="D24">
-        <v>1.355062915985975</v>
+        <v>1.358425067884943</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -727,10 +727,10 @@
         <v>3.938775510204082</v>
       </c>
       <c r="C25">
-        <v>5.16730039715202</v>
+        <v>5.185262218194373</v>
       </c>
       <c r="D25">
-        <v>1.311905282178492</v>
+        <v>1.316465537261784</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -741,10 +741,10 @@
         <v>3.979591836734694</v>
       </c>
       <c r="C26">
-        <v>5.056976735763558</v>
+        <v>5.079285922845465</v>
       </c>
       <c r="D26">
-        <v>1.270727487448279</v>
+        <v>1.276333385740656</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -755,10 +755,10 @@
         <v>4.020408163265306</v>
       </c>
       <c r="C27">
-        <v>4.952158074432184</v>
+        <v>4.978107328566682</v>
       </c>
       <c r="D27">
-        <v>1.231755054046584</v>
+        <v>1.238209437054657</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -769,10 +769,10 @@
         <v>4.061224489795919</v>
       </c>
       <c r="C28">
-        <v>4.854310787744193</v>
+        <v>4.882961136195439</v>
       </c>
       <c r="D28">
-        <v>1.195282555776208</v>
+        <v>1.202337164188827</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -783,10 +783,10 @@
         <v>4.102040816326531</v>
       </c>
       <c r="C29">
-        <v>4.765082190290474</v>
+        <v>4.795288275142211</v>
       </c>
       <c r="D29">
-        <v>1.161636951861857</v>
+        <v>1.1690006242884</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -797,10 +797,10 @@
         <v>4.142857142857142</v>
       </c>
       <c r="C30">
-        <v>4.686005519637014</v>
+        <v>4.716530548507789</v>
       </c>
       <c r="D30">
-        <v>1.131104780602038</v>
+        <v>1.138472891019122</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -811,10 +811,10 @@
         <v>4.183673469387755</v>
       </c>
       <c r="C31">
-        <v>4.618127865715039</v>
+        <v>4.647828287166298</v>
       </c>
       <c r="D31">
-        <v>1.103845197170912</v>
+        <v>1.110944322298286</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -825,10 +825,10 @@
         <v>4.224489795918367</v>
       </c>
       <c r="C32">
-        <v>4.561747722140479</v>
+        <v>4.589746077739643</v>
       </c>
       <c r="D32">
-        <v>1.079834001859341</v>
+        <v>1.086461631928708</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -839,10 +839,10 @@
         <v>4.26530612244898</v>
       </c>
       <c r="C33">
-        <v>4.51640570667788</v>
+        <v>4.54216963218478</v>
       </c>
       <c r="D33">
-        <v>1.058870237450795</v>
+        <v>1.064910583622269</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -853,10 +853,10 @@
         <v>4.306122448979592</v>
       </c>
       <c r="C34">
-        <v>4.481097578338124</v>
+        <v>4.504411169355498</v>
       </c>
       <c r="D34">
-        <v>1.040634034779943</v>
+        <v>1.046048091461703</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -867,10 +867,10 @@
         <v>4.346938775510204</v>
       </c>
       <c r="C35">
-        <v>4.454559021256901</v>
+        <v>4.475434161816517</v>
       </c>
       <c r="D35">
-        <v>1.024757709115437</v>
+        <v>1.029559971497696</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -881,10 +881,10 @@
         <v>4.387755102040816</v>
       </c>
       <c r="C36">
-        <v>4.435495785658073</v>
+        <v>4.454077629883037</v>
       </c>
       <c r="D36">
-        <v>1.01088043487091</v>
+        <v>1.015115366810553</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -895,10 +895,10 @@
         <v>4.428571428571429</v>
       </c>
       <c r="C37">
-        <v>4.420911081454018</v>
+        <v>4.439213108688921</v>
       </c>
       <c r="D37">
-        <v>0.9982702441992943</v>
+        <v>1.002402960026531</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -909,10 +909,10 @@
         <v>4.469387755102041</v>
       </c>
       <c r="C38">
-        <v>4.394916769807649</v>
+        <v>4.416246074593184</v>
       </c>
       <c r="D38">
-        <v>0.9833375421030813</v>
+        <v>0.9881098523062376</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -923,10 +923,10 @@
         <v>4.510204081632653</v>
       </c>
       <c r="C39">
-        <v>4.369066632169326</v>
+        <v>4.390456412385222</v>
       </c>
       <c r="D39">
-        <v>0.9687070813407102</v>
+        <v>0.9734496117958185</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -937,10 +937,10 @@
         <v>4.551020408163266</v>
       </c>
       <c r="C40">
-        <v>4.343360336169345</v>
+        <v>4.364813616184787</v>
       </c>
       <c r="D40">
-        <v>0.9543706568264479</v>
+        <v>0.9590846062468814</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -951,10 +951,10 @@
         <v>4.591836734693878</v>
       </c>
       <c r="C41">
-        <v>4.317797528254856</v>
+        <v>4.339317145500344</v>
       </c>
       <c r="D41">
-        <v>0.9403203505977242</v>
+        <v>0.9450068450200747</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -965,10 +965,10 @@
         <v>4.63265306122449</v>
       </c>
       <c r="C42">
-        <v>4.2923778349736</v>
+        <v>4.313966447116654</v>
       </c>
       <c r="D42">
-        <v>0.9265485194436405</v>
+        <v>0.931208616337956</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -979,10 +979,10 @@
         <v>4.673469387755103</v>
       </c>
       <c r="C43">
-        <v>4.267100864186639</v>
+        <v>4.288760956023772</v>
       </c>
       <c r="D43">
-        <v>0.9130477831665733</v>
+        <v>0.9176824753063966</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -993,10 +993,10 @@
         <v>4.714285714285714</v>
       </c>
       <c r="C44">
-        <v>4.241966206211535</v>
+        <v>4.26370009629011</v>
       </c>
       <c r="D44">
-        <v>0.8998110134388103</v>
+        <v>0.904421232546387</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1007,10 +1007,10 @@
         <v>4.755102040816326</v>
       </c>
       <c r="C45">
-        <v>4.216973434903117</v>
+        <v>4.238783281884887</v>
       </c>
       <c r="D45">
-        <v>0.8868313232199689</v>
+        <v>0.8914179434006844</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1021,10 +1021,10 @@
         <v>4.795918367346939</v>
       </c>
       <c r="C46">
-        <v>4.192122108673836</v>
+        <v>4.214009917451979</v>
       </c>
       <c r="D46">
-        <v>0.874102056702204</v>
+        <v>0.8786658976814765</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1035,10 +1035,10 @@
         <v>4.836734693877551</v>
       </c>
       <c r="C47">
-        <v>4.16741177145787</v>
+        <v>4.189379399038577</v>
       </c>
       <c r="D47">
-        <v>0.8616167797528929</v>
+        <v>0.8661586099278071</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1049,10 +1049,10 @@
         <v>4.877551020408164</v>
       </c>
       <c r="C48">
-        <v>4.142841953622262</v>
+        <v>4.164891114781254</v>
       </c>
       <c r="D48">
-        <v>0.8493692708263214</v>
+        <v>0.8538898101434369</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1063,10 +1063,10 @@
         <v>4.918367346938776</v>
       </c>
       <c r="C49">
-        <v>4.118412172828227</v>
+        <v>4.140544445552172</v>
       </c>
       <c r="D49">
-        <v>0.8373535123177722</v>
+        <v>0.841853434987786</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1077,10 +1077,10 @@
         <v>4.959183673469387</v>
       </c>
       <c r="C50">
-        <v>4.094121934845516</v>
+        <v>4.116338765567718</v>
       </c>
       <c r="D50">
-        <v>0.8255636823351041</v>
+        <v>0.8300436193943137</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1091,10 +1091,10 @@
         <v>5</v>
       </c>
       <c r="C51">
-        <v>4.069970734322579</v>
+        <v>4.092273442961891</v>
       </c>
       <c r="D51">
-        <v>0.8139941468645159</v>
+        <v>0.8184546885923781</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1105,10 +1105,10 @@
         <v>5</v>
       </c>
       <c r="C52">
-        <v>4.069970734322579</v>
+        <v>4.092273442961891</v>
       </c>
       <c r="D52">
-        <v>0.8139941468645159</v>
+        <v>0.8184546885923781</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1119,10 +1119,10 @@
         <v>5.526315789473685</v>
       </c>
       <c r="C53">
-        <v>3.770762457797573</v>
+        <v>3.794242382517293</v>
       </c>
       <c r="D53">
-        <v>0.6823284447443226</v>
+        <v>0.6865771930269385</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1133,10 +1133,10 @@
         <v>6.052631578947368</v>
       </c>
       <c r="C54">
-        <v>3.493361719311971</v>
+        <v>3.518024410562919</v>
       </c>
       <c r="D54">
-        <v>0.5771641101471952</v>
+        <v>0.5812388156582214</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1147,10 +1147,10 @@
         <v>6.578947368421054</v>
       </c>
       <c r="C55">
-        <v>3.236455499264675</v>
+        <v>3.262185848632251</v>
       </c>
       <c r="D55">
-        <v>0.4919412358882305</v>
+        <v>0.495852248992102</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1161,10 +1161,10 @@
         <v>7.105263157894736</v>
       </c>
       <c r="C56">
-        <v>2.998713359019171</v>
+        <v>3.0253289707144</v>
       </c>
       <c r="D56">
-        <v>0.422041139417513</v>
+        <v>0.4257870403227675</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1175,10 +1175,10 @@
         <v>7.631578947368421</v>
       </c>
       <c r="C57">
-        <v>2.778834282050129</v>
+        <v>2.806119997760789</v>
       </c>
       <c r="D57">
-        <v>0.3641231128203617</v>
+        <v>0.3676984824652068</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1189,10 +1189,10 @@
         <v>8.157894736842106</v>
       </c>
       <c r="C58">
-        <v>2.57556976804331</v>
+        <v>2.603300110974081</v>
       </c>
       <c r="D58">
-        <v>0.3157150038246637</v>
+        <v>0.3191142071516614</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1203,10 +1203,10 @@
         <v>8.684210526315789</v>
       </c>
       <c r="C59">
-        <v>2.387734474951563</v>
+        <v>2.41568812816966</v>
       </c>
       <c r="D59">
-        <v>0.27495124257018</v>
+        <v>0.2781701480922638</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1217,10 +1217,10 @@
         <v>9.210526315789474</v>
       </c>
       <c r="C60">
-        <v>2.214210245543748</v>
+        <v>2.242179161499242</v>
       </c>
       <c r="D60">
-        <v>0.2403999695161783</v>
+        <v>0.2434365946770605</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1231,10 +1231,10 @@
         <v>9.736842105263158</v>
       </c>
       <c r="C61">
-        <v>2.05394661264514</v>
+        <v>2.08174144710694</v>
       </c>
       <c r="D61">
-        <v>0.2109458683257171</v>
+        <v>0.2138004729461182</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1245,10 +1245,10 @@
         <v>10.26315789473684</v>
       </c>
       <c r="C62">
-        <v>1.905959451211116</v>
+        <v>1.933412458234173</v>
       </c>
       <c r="D62">
-        <v>0.1857088696051856</v>
+        <v>0.1883837779817913</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1259,10 +1259,10 @@
         <v>10.78947368421053</v>
       </c>
       <c r="C63">
-        <v>1.769328684013743</v>
+        <v>1.796294854622382</v>
       </c>
       <c r="D63">
-        <v>0.1639865609573713</v>
+        <v>0.1664858645747574</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1273,10 +1273,10 @@
         <v>11.31578947368421</v>
       </c>
       <c r="C64">
-        <v>1.643195533641063</v>
+        <v>1.669552528995717</v>
       </c>
       <c r="D64">
-        <v>0.1452126285543265</v>
+        <v>0.1475418513996215</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1287,10 +1287,10 @@
         <v>11.8421052631579</v>
       </c>
       <c r="C65">
-        <v>1.526759585950422</v>
+        <v>1.552406859332579</v>
       </c>
       <c r="D65">
-        <v>0.1289263650358134</v>
+        <v>0.1310921347880844</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1301,10 +1301,10 @@
         <v>12.36842105263158</v>
       </c>
       <c r="C66">
-        <v>1.419275804872703</v>
+        <v>1.444133198331093</v>
       </c>
       <c r="D66">
-        <v>0.1147499586918356</v>
+        <v>0.116759705396982</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1315,10 +1315,10 @@
         <v>12.89473684210526</v>
       </c>
       <c r="C67">
-        <v>1.3200515701508</v>
+        <v>1.344057594413594</v>
       </c>
       <c r="D67">
-        <v>0.1023713462565926</v>
+        <v>0.1042330379341154</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1329,10 +1329,10 @@
         <v>13.42105263157895</v>
       </c>
       <c r="C68">
-        <v>1.228443773158919</v>
+        <v>1.251553723123703</v>
       </c>
       <c r="D68">
-        <v>0.09153110466674301</v>
+        <v>0.09325302250725627</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1343,10 +1343,10 @@
         <v>13.94736842105263</v>
       </c>
       <c r="C69">
-        <v>1.143855987298411</v>
+        <v>1.166040003556778</v>
       </c>
       <c r="D69">
-        <v>0.08201231607045212</v>
+        <v>0.08360286817954254</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1357,10 +1357,10 @@
         <v>14.47368421052632</v>
       </c>
       <c r="C70">
-        <v>1.065735720572908</v>
+        <v>1.086976875836521</v>
       </c>
       <c r="D70">
-        <v>0.07363264978503729</v>
+        <v>0.07510022051234148</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1371,10 +1371,10 @@
         <v>15</v>
       </c>
       <c r="C71">
-        <v>0.9935717542181902</v>
+        <v>1.013864219432036</v>
       </c>
       <c r="D71">
-        <v>0.06623811694787934</v>
+        <v>0.0675909479621357</v>
       </c>
     </row>
   </sheetData>
